--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +786,17 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +839,17 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +892,17 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +919,11 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,26 +936,26 @@
       <c r="F12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -925,8 +966,17 @@
       <c r="P12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,52 +1019,70 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-100</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1039,26 +1107,35 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,8 +1149,11 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1084,40 +1164,49 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>800</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>300</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
         <v>-100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1217,49 @@
         <v>-100</v>
       </c>
       <c r="F18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>400</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1276,11 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,25 +1288,25 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="F20" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="G20" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H20" s="3">
+        <v>500</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="K20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1222,8 +1323,17 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,70 +1341,79 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
+        <v>100</v>
+      </c>
+      <c r="H22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>400</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1310,52 +1429,70 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1374,14 +1511,14 @@
       <c r="H24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
@@ -1398,8 +1535,17 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1588,123 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1747,17 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1800,17 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1853,17 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1906,17 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,25 +1924,25 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-400</v>
+        <v>-100</v>
       </c>
       <c r="F32" s="3">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="G32" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H32" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -1750,52 +1959,70 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +2065,128 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2203,11 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2224,11 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1982,20 +2242,20 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2011,8 +2271,17 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,8 +2324,17 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2377,17 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2430,17 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2163,14 +2459,14 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2181,14 +2477,23 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2202,20 +2507,20 @@
         <v>0</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2231,8 +2536,17 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2589,17 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2319,43 +2642,52 @@
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>400</v>
+      </c>
+      <c r="F49" s="3">
+        <v>400</v>
+      </c>
+      <c r="G49" s="3">
         <v>500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>500</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>300</v>
-      </c>
-      <c r="L49" s="3">
-        <v>600</v>
-      </c>
-      <c r="M49" s="3">
-        <v>600</v>
-      </c>
-      <c r="N49" s="3">
-        <v>600</v>
       </c>
       <c r="O49" s="3">
         <v>600</v>
@@ -2363,8 +2695,17 @@
       <c r="P49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>600</v>
+      </c>
+      <c r="R49" s="3">
+        <v>600</v>
+      </c>
+      <c r="S49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2748,17 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2801,17 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2465,26 +2824,26 @@
       <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3">
+        <v>100</v>
+      </c>
+      <c r="I52" s="3">
+        <v>100</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2495,8 +2854,17 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,13 +2907,22 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E54" s="3">
         <v>600</v>
@@ -2557,25 +2934,25 @@
         <v>600</v>
       </c>
       <c r="H54" s="3">
+        <v>600</v>
+      </c>
+      <c r="I54" s="3">
+        <v>600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>600</v>
+      </c>
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>600</v>
-      </c>
-      <c r="M54" s="3">
-        <v>600</v>
-      </c>
-      <c r="N54" s="3">
-        <v>600</v>
       </c>
       <c r="O54" s="3">
         <v>600</v>
@@ -2583,8 +2960,17 @@
       <c r="P54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2987,11 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,34 +3008,37 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -2655,49 +3047,58 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
+        <v>200</v>
+      </c>
+      <c r="O57" s="3">
+        <v>200</v>
+      </c>
+      <c r="P57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -2707,81 +3108,99 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G59" s="3">
         <v>800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
         <v>500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>500</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G60" s="3">
         <v>2100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>2200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>1700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>200</v>
-      </c>
-      <c r="J60" s="3">
-        <v>800</v>
-      </c>
-      <c r="K60" s="3">
-        <v>800</v>
-      </c>
-      <c r="L60" s="3">
-        <v>900</v>
       </c>
       <c r="M60" s="3">
         <v>800</v>
@@ -2793,10 +3212,19 @@
         <v>900</v>
       </c>
       <c r="P60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>800</v>
+      </c>
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2807,23 +3235,23 @@
         <v>1100</v>
       </c>
       <c r="F61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>1100</v>
       </c>
       <c r="H61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K61" s="3">
         <v>1200</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2839,8 +3267,17 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3320,17 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3373,17 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3426,17 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,37 +3479,46 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>3500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>2800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>2500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>800</v>
-      </c>
-      <c r="L66" s="3">
-        <v>900</v>
       </c>
       <c r="M66" s="3">
         <v>800</v>
@@ -3057,10 +3530,19 @@
         <v>900</v>
       </c>
       <c r="P66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>800</v>
+      </c>
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3559,11 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3606,17 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3659,17 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3712,17 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3765,70 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="G72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-3500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-19500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-19500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-19400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-19200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-19300</v>
       </c>
       <c r="P72" s="3">
         <v>-19200</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="S72" s="3">
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3871,17 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3924,17 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3977,70 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="G76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-2200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-1400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>-500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>-400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>-200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>-200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>-200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>-300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +4083,128 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4221,11 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4268,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4321,17 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4374,17 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4427,17 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4480,17 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,8 +4533,17 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3901,26 +4551,26 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -3936,8 +4586,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4613,11 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3998,8 +4660,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4713,17 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4766,17 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4101,20 +4790,20 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4819,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4846,11 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4893,17 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4946,17 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4999,17 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,8 +5052,17 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4333,26 +5070,26 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -4368,13 +5105,22 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>4</v>
@@ -4382,8 +5128,8 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
@@ -4394,14 +5140,14 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4412,8 +5158,17 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4424,23 +5179,23 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -4454,6 +5209,15 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -945,20 +959,20 @@
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1040,49 +1060,52 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-900</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-100</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1116,8 +1139,8 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3" t="s">
-        <v>4</v>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>4</v>
@@ -1128,14 +1151,17 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,13 +1178,14 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1170,43 +1197,46 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>-400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
       <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
         <v>-100</v>
-      </c>
-      <c r="R17" s="3">
-        <v>100</v>
       </c>
       <c r="S17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1223,43 +1253,46 @@
         <v>-100</v>
       </c>
       <c r="H18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
         <v>0</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>100</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-100</v>
       </c>
       <c r="S18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,29 +1322,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,52 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-1000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
         <v>0</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
         <v>0</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,26 +1437,26 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>100</v>
       </c>
       <c r="H22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I22" s="3">
         <v>200</v>
       </c>
       <c r="J22" s="3">
+        <v>200</v>
+      </c>
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1520,8 +1566,8 @@
       <c r="K24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
       <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
       <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,29 +1994,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
       <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
       <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2251,14 +2338,14 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2468,8 +2567,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2486,14 +2585,17 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2516,14 +2618,14 @@
         <v>0</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2666,7 +2777,7 @@
         <v>400</v>
       </c>
       <c r="G49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>500</v>
@@ -2675,13 +2786,13 @@
         <v>500</v>
       </c>
       <c r="J49" s="3">
+        <v>500</v>
+      </c>
+      <c r="K49" s="3">
         <v>600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>900</v>
-      </c>
-      <c r="L49" s="3">
-        <v>300</v>
       </c>
       <c r="M49" s="3">
         <v>300</v>
@@ -2690,7 +2801,7 @@
         <v>300</v>
       </c>
       <c r="O49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P49" s="3">
         <v>600</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2833,8 +2953,8 @@
       <c r="I52" s="3">
         <v>100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>4</v>
+      <c r="J52" s="3">
+        <v>100</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>4</v>
@@ -2845,8 +2965,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2925,7 +3051,7 @@
         <v>500</v>
       </c>
       <c r="E54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F54" s="3">
         <v>600</v>
@@ -2943,10 +3069,10 @@
         <v>600</v>
       </c>
       <c r="K54" s="3">
+        <v>600</v>
+      </c>
+      <c r="L54" s="3">
         <v>1100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>300</v>
       </c>
       <c r="M54" s="3">
         <v>300</v>
@@ -2955,7 +3081,7 @@
         <v>300</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3020,19 +3151,19 @@
         <v>500</v>
       </c>
       <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>300</v>
       </c>
       <c r="G57" s="3">
         <v>300</v>
       </c>
       <c r="H57" s="3">
+        <v>300</v>
+      </c>
+      <c r="I57" s="3">
         <v>200</v>
-      </c>
-      <c r="I57" s="3">
-        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
@@ -3041,7 +3172,7 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
@@ -3056,21 +3187,24 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
+        <v>200</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>400</v>
       </c>
       <c r="S57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="E58" s="3">
         <v>1100</v>
@@ -3079,29 +3213,29 @@
         <v>1100</v>
       </c>
       <c r="G58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>600</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
@@ -3117,13 +3251,16 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
         <v>1800</v>
@@ -3132,31 +3269,31 @@
         <v>1800</v>
       </c>
       <c r="G59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H59" s="3">
         <v>800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
-      </c>
       <c r="M59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>500</v>
       </c>
       <c r="O59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P59" s="3">
         <v>600</v>
@@ -3165,13 +3302,16 @@
         <v>600</v>
       </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,52 +3319,55 @@
         <v>3400</v>
       </c>
       <c r="E60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
-      </c>
-      <c r="M60" s="3">
-        <v>800</v>
       </c>
       <c r="N60" s="3">
         <v>800</v>
       </c>
       <c r="O60" s="3">
+        <v>800</v>
+      </c>
+      <c r="P60" s="3">
         <v>900</v>
-      </c>
-      <c r="P60" s="3">
-        <v>800</v>
       </c>
       <c r="Q60" s="3">
         <v>800</v>
       </c>
       <c r="R60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3235,10 +3378,10 @@
         <v>1100</v>
       </c>
       <c r="F61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="3">
         <v>1200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1100</v>
       </c>
       <c r="H61" s="3">
         <v>1100</v>
@@ -3250,11 +3393,11 @@
         <v>1100</v>
       </c>
       <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E66" s="3">
         <v>4500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>800</v>
       </c>
       <c r="N66" s="3">
         <v>800</v>
       </c>
       <c r="O66" s="3">
+        <v>800</v>
+      </c>
+      <c r="P66" s="3">
         <v>900</v>
-      </c>
-      <c r="P66" s="3">
-        <v>800</v>
       </c>
       <c r="Q66" s="3">
         <v>800</v>
       </c>
       <c r="R66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,46 +3945,49 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6200</v>
       </c>
       <c r="F72" s="3">
         <v>-6200</v>
       </c>
       <c r="G72" s="3">
-        <v>-5000</v>
+        <v>-6200</v>
       </c>
       <c r="H72" s="3">
         <v>-5000</v>
       </c>
       <c r="I72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3500</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-19500</v>
       </c>
       <c r="M72" s="3">
         <v>-19500</v>
       </c>
       <c r="N72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="O72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-19200</v>
       </c>
       <c r="P72" s="3">
         <v>-19200</v>
@@ -3822,13 +3996,16 @@
         <v>-19200</v>
       </c>
       <c r="R72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="S72" s="3">
         <v>-19300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,46 +4169,49 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-3800</v>
       </c>
       <c r="F76" s="3">
         <v>-3800</v>
       </c>
       <c r="G76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-2800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-2200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-200</v>
       </c>
       <c r="P76" s="3">
         <v>-200</v>
@@ -4034,13 +4220,16 @@
         <v>-200</v>
       </c>
       <c r="R76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="S76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
       <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4560,20 +4777,20 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4799,14 +5029,14 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5079,20 +5325,20 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
       </c>
       <c r="J100" s="3">
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5128,11 +5377,11 @@
       <c r="F101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>4</v>
@@ -5149,8 +5398,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5188,17 +5440,17 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J102" s="3">
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -678,81 +678,96 @@
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>3500</v>
       </c>
       <c r="E8" s="3">
         <v>0</v>
@@ -802,13 +817,25 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>2800</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -858,13 +885,25 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>700</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -914,8 +953,20 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +987,12 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -962,8 +1017,8 @@
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>100</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
@@ -975,16 +1030,16 @@
         <v>4</v>
       </c>
       <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
         <v>0</v>
@@ -992,8 +1047,20 @@
       <c r="T12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,69 +1115,93 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-1200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>100</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>100</v>
+      </c>
+      <c r="N14" s="3">
         <v>200</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>-900</v>
       </c>
-      <c r="L14" s="3">
-        <v>100</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>-100</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1142,26 +1233,38 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1282,148 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>100</v>
+      </c>
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>-400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>-100</v>
       </c>
-      <c r="S17" s="3">
-        <v>100</v>
-      </c>
-      <c r="T17" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>100</v>
+      </c>
+      <c r="X17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-1300</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="X18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,50 +1444,54 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
+        <v>100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="N20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="O20" s="3">
         <v>-800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="P20" s="3">
         <v>-200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -1369,105 +1504,129 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-1300</v>
       </c>
       <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>200</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1000</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="N21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>100</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>100</v>
+      </c>
+      <c r="L22" s="3">
+        <v>100</v>
+      </c>
+      <c r="M22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="N22" s="3">
         <v>200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="O22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3">
-        <v>100</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1481,87 +1640,111 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-100</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>100</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
-        <v>100</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>100</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3">
         <v>-900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1569,17 +1752,17 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1593,8 +1776,20 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1844,156 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-100</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
-        <v>100</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>100</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3">
         <v>-900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-100</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>100</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
-        <v>100</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>100</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3">
         <v>-900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +2048,20 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +2116,20 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2184,20 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,50 +2252,62 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>100</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="3">
         <v>900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="N32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="O32" s="3">
         <v>800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="P32" s="3">
         <v>200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
@@ -2041,64 +2320,88 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-100</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>100</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
-        <v>100</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>100</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3">
         <v>-900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2456,161 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-100</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>100</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>100</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3">
         <v>-900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2631,12 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,19 +2657,23 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2341,23 +2688,23 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
@@ -2370,8 +2717,20 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,31 +2785,43 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>6900</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2482,31 +2853,43 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2538,13 +2921,25 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2570,17 +2965,17 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2588,25 +2983,37 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>0</v>
@@ -2621,23 +3028,23 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>100</v>
+      </c>
+      <c r="P46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
@@ -2650,8 +3057,20 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,31 +3125,43 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>3300</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -2762,13 +3193,25 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>400</v>
+        <v>15900</v>
       </c>
       <c r="E49" s="3">
         <v>400</v>
@@ -2780,46 +3223,58 @@
         <v>400</v>
       </c>
       <c r="H49" s="3">
+        <v>400</v>
+      </c>
+      <c r="I49" s="3">
+        <v>400</v>
+      </c>
+      <c r="J49" s="3">
+        <v>400</v>
+      </c>
+      <c r="K49" s="3">
+        <v>400</v>
+      </c>
+      <c r="L49" s="3">
         <v>500</v>
       </c>
-      <c r="I49" s="3">
+      <c r="M49" s="3">
         <v>500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="N49" s="3">
         <v>500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="O49" s="3">
         <v>600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="P49" s="3">
         <v>900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="Q49" s="3">
         <v>300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="R49" s="3">
         <v>300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="S49" s="3">
         <v>300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>600</v>
-      </c>
-      <c r="R49" s="3">
-        <v>600</v>
-      </c>
-      <c r="S49" s="3">
-        <v>600</v>
       </c>
       <c r="T49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>600</v>
+      </c>
+      <c r="V49" s="3">
+        <v>600</v>
+      </c>
+      <c r="W49" s="3">
+        <v>600</v>
+      </c>
+      <c r="X49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3329,20 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,16 +3397,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2956,29 +3435,29 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
+      </c>
+      <c r="M52" s="3">
+        <v>100</v>
+      </c>
+      <c r="N52" s="3">
+        <v>100</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -2986,8 +3465,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,28 +3533,40 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>500</v>
       </c>
-      <c r="F54" s="3">
-        <v>600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>600</v>
-      </c>
       <c r="H54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="I54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>600</v>
@@ -3072,34 +3575,46 @@
         <v>600</v>
       </c>
       <c r="L54" s="3">
+        <v>600</v>
+      </c>
+      <c r="M54" s="3">
+        <v>600</v>
+      </c>
+      <c r="N54" s="3">
+        <v>600</v>
+      </c>
+      <c r="O54" s="3">
+        <v>600</v>
+      </c>
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="Q54" s="3">
         <v>300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="R54" s="3">
         <v>300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="S54" s="3">
         <v>300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>600</v>
-      </c>
-      <c r="R54" s="3">
-        <v>600</v>
-      </c>
-      <c r="S54" s="3">
-        <v>600</v>
       </c>
       <c r="T54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3635,12 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,111 +3661,127 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
       </c>
       <c r="M57" s="3">
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>200</v>
       </c>
       <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
+        <v>200</v>
+      </c>
+      <c r="U57" s="3">
+        <v>200</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="X57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="H58" s="3">
         <v>1000</v>
       </c>
       <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="M58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="O58" s="3">
         <v>600</v>
       </c>
-      <c r="L58" s="3">
-        <v>100</v>
-      </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>100</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3254,16 +3789,28 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2000</v>
+        <v>11300</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="F59" s="3">
         <v>1800</v>
@@ -3272,113 +3819,137 @@
         <v>1800</v>
       </c>
       <c r="H59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="N59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
         <v>500</v>
-      </c>
-      <c r="O59" s="3">
-        <v>500</v>
-      </c>
-      <c r="P59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>600</v>
-      </c>
-      <c r="R59" s="3">
-        <v>600</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
+        <v>600</v>
+      </c>
+      <c r="U59" s="3">
+        <v>600</v>
+      </c>
+      <c r="V59" s="3">
+        <v>600</v>
+      </c>
+      <c r="W59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3400</v>
+        <v>23400</v>
       </c>
       <c r="E60" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="F60" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="G60" s="3">
         <v>3200</v>
       </c>
       <c r="H60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L60" s="3">
         <v>2100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="P60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
-      </c>
-      <c r="N60" s="3">
-        <v>800</v>
-      </c>
-      <c r="O60" s="3">
-        <v>800</v>
-      </c>
-      <c r="P60" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>800</v>
       </c>
       <c r="R60" s="3">
         <v>800</v>
       </c>
       <c r="S60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T60" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>800</v>
+      </c>
+      <c r="V60" s="3">
+        <v>800</v>
+      </c>
+      <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="F61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>1200</v>
@@ -3393,23 +3964,23 @@
         <v>1100</v>
       </c>
       <c r="K61" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L61" s="3">
         <v>1100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P61" s="3">
         <v>1200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3422,31 +3993,43 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>1600</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3478,8 +4061,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +4129,20 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +4197,20 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,16 +4265,28 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4600</v>
+        <v>26100</v>
       </c>
       <c r="E66" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="F66" s="3">
         <v>4300</v>
@@ -3664,46 +4295,58 @@
         <v>4400</v>
       </c>
       <c r="H66" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>4500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>4400</v>
+      </c>
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
         <v>3300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="N66" s="3">
         <v>3500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>800</v>
-      </c>
-      <c r="P66" s="3">
-        <v>900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>800</v>
       </c>
       <c r="R66" s="3">
         <v>800</v>
       </c>
       <c r="S66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="T66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>800</v>
+      </c>
+      <c r="V66" s="3">
+        <v>800</v>
+      </c>
+      <c r="W66" s="3">
+        <v>900</v>
+      </c>
+      <c r="X66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4367,12 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4427,20 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4495,20 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4563,20 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4631,88 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="I72" s="3">
         <v>-6400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="J72" s="3">
         <v>-6200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="K72" s="3">
         <v>-6200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="L72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="M72" s="3">
         <v>-5000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="O72" s="3">
         <v>-4300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="P72" s="3">
         <v>-3500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="Q72" s="3">
         <v>-19500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="R72" s="3">
         <v>-19500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="S72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-19300</v>
       </c>
       <c r="T72" s="3">
         <v>-19200</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="W72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4767,20 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4835,20 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4903,88 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="H76" s="3">
         <v>-4000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="I76" s="3">
         <v>-3900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="J76" s="3">
         <v>-3800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="K76" s="3">
         <v>-3800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="L76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="M76" s="3">
         <v>-2800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="N76" s="3">
         <v>-3000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="O76" s="3">
         <v>-2200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="P76" s="3">
         <v>-1400</v>
       </c>
-      <c r="M76" s="3">
-        <v>100</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
         <v>-500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="S76" s="3">
         <v>-400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="T76" s="3">
         <v>-200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="U76" s="3">
         <v>-200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="V76" s="3">
         <v>-200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="W76" s="3">
         <v>-300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="X76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +5039,161 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-100</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>100</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
-        <v>100</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>100</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3">
         <v>-900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,13 +5214,17 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4479,8 +5274,20 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +5342,20 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5410,20 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5478,20 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5546,20 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,19 +5614,31 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-6700</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="F89" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="G89" s="3">
         <v>0</v>
@@ -4780,29 +5647,29 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="O89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="P89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
@@ -4815,8 +5682,20 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5716,12 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5776,20 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5844,20 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,16 +5912,28 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5032,23 +5951,23 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>100</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5980,20 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +6014,12 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +6074,20 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +6142,20 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +6210,20 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,19 +6278,31 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>9800</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5328,29 +6311,29 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
@@ -5363,37 +6346,49 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -5401,17 +6396,17 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -5419,19 +6414,31 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G102" s="3">
         <v>0</v>
@@ -5443,26 +6450,26 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
@@ -5473,6 +6480,18 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,116 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E8" s="3">
         <v>3500</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
       <c r="F8" s="3">
         <v>0</v>
       </c>
@@ -829,17 +832,20 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2800</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
@@ -897,17 +903,20 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1029,11 +1042,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O12" s="3">
-        <v>100</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3">
+        <v>100</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
@@ -1041,8 +1054,8 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,26 +1143,29 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>-1200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
         <v>0</v>
       </c>
@@ -1154,49 +1173,52 @@
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>100</v>
+      </c>
+      <c r="O14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-900</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
       </c>
       <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>-100</v>
       </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1226,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1245,8 +1267,8 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
-        <v>4</v>
+      <c r="S15" s="3">
+        <v>0</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>4</v>
@@ -1257,14 +1279,17 @@
       <c r="V15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
+      <c r="W15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,28 +1311,29 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
         <v>-100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>100</v>
@@ -1319,63 +1345,66 @@
         <v>100</v>
       </c>
       <c r="M17" s="3">
+        <v>100</v>
+      </c>
+      <c r="N17" s="3">
         <v>200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>-400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
       <c r="R17" s="3">
         <v>0</v>
       </c>
       <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>-100</v>
       </c>
-      <c r="W17" s="3">
-        <v>100</v>
-      </c>
       <c r="X17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-100</v>
@@ -1387,43 +1416,46 @@
         <v>-100</v>
       </c>
       <c r="M18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
       <c r="R18" s="3">
         <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,53 +1480,54 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>400</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>100</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>100</v>
+      </c>
+      <c r="L20" s="3">
         <v>-900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-200</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
         <v>0</v>
       </c>
@@ -1516,87 +1549,93 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-100</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-1000</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
+        <v>100</v>
+      </c>
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>300</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
         <v>300</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1611,25 +1650,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>100</v>
       </c>
       <c r="M22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N22" s="3">
         <v>200</v>
       </c>
       <c r="O22" s="3">
+        <v>200</v>
+      </c>
+      <c r="P22" s="3">
         <v>400</v>
       </c>
-      <c r="P22" s="3">
-        <v>100</v>
-      </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>100</v>
-      </c>
       <c r="H23" s="3">
+        <v>100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
       </c>
       <c r="J23" s="3">
         <v>-100</v>
       </c>
       <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1746,8 +1791,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1764,8 +1809,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>100</v>
-      </c>
       <c r="H26" s="3">
+        <v>100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
       </c>
       <c r="J26" s="3">
         <v>-100</v>
       </c>
       <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>100</v>
-      </c>
       <c r="H27" s="3">
+        <v>100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
       </c>
       <c r="J27" s="3">
         <v>-100</v>
       </c>
       <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,53 +2330,56 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="E32" s="3">
+        <v>100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-400</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>200</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
         <v>0</v>
       </c>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>100</v>
-      </c>
       <c r="H33" s="3">
+        <v>100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
       </c>
       <c r="J33" s="3">
         <v>-100</v>
       </c>
       <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>100</v>
-      </c>
       <c r="H35" s="3">
+        <v>100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
       </c>
       <c r="J35" s="3">
         <v>-100</v>
       </c>
       <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2746,23 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E41" s="3">
         <v>2600</v>
       </c>
-      <c r="E41" s="3">
-        <v>100</v>
-      </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2700,14 +2786,14 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q41" s="3">
         <v>200</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,17 +2886,20 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E43" s="3">
         <v>6900</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2823,8 +2915,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2865,17 +2957,20 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>900</v>
+      </c>
+      <c r="E44" s="3">
         <v>1600</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2891,8 +2986,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2933,16 +3028,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2977,8 +3075,8 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2995,28 +3093,31 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W45" s="3">
-        <v>0</v>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E46" s="3">
         <v>11200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>100</v>
-      </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>0</v>
@@ -3040,14 +3141,14 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,17 +3241,20 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>3300</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3163,8 +3270,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3205,16 +3312,19 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E49" s="3">
         <v>15900</v>
-      </c>
-      <c r="E49" s="3">
-        <v>400</v>
       </c>
       <c r="F49" s="3">
         <v>400</v>
@@ -3235,7 +3345,7 @@
         <v>400</v>
       </c>
       <c r="L49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>500</v>
@@ -3244,13 +3354,13 @@
         <v>500</v>
       </c>
       <c r="O49" s="3">
+        <v>500</v>
+      </c>
+      <c r="P49" s="3">
         <v>600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>900</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>300</v>
       </c>
       <c r="R49" s="3">
         <v>300</v>
@@ -3259,7 +3369,7 @@
         <v>300</v>
       </c>
       <c r="T49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>600</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3418,11 +3537,11 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>200</v>
       </c>
-      <c r="F52" s="3">
-        <v>100</v>
-      </c>
       <c r="G52" s="3">
         <v>100</v>
       </c>
@@ -3447,8 +3566,8 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -3459,8 +3578,8 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,19 +3667,22 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35400</v>
+      </c>
+      <c r="E54" s="3">
         <v>30700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>500</v>
       </c>
       <c r="G54" s="3">
         <v>500</v>
@@ -3569,7 +3694,7 @@
         <v>500</v>
       </c>
       <c r="J54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="K54" s="3">
         <v>600</v>
@@ -3587,10 +3712,10 @@
         <v>600</v>
       </c>
       <c r="P54" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1100</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>300</v>
       </c>
       <c r="R54" s="3">
         <v>300</v>
@@ -3599,7 +3724,7 @@
         <v>300</v>
       </c>
       <c r="T54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>600</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,19 +3794,20 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E57" s="3">
         <v>8900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>500</v>
       </c>
       <c r="G57" s="3">
         <v>500</v>
@@ -3689,20 +3819,20 @@
         <v>500</v>
       </c>
       <c r="J57" s="3">
+        <v>500</v>
+      </c>
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="K57" s="3">
-        <v>300</v>
       </c>
       <c r="L57" s="3">
         <v>300</v>
       </c>
       <c r="M57" s="3">
+        <v>300</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
         <v>100</v>
       </c>
@@ -3710,7 +3840,7 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
@@ -3725,36 +3855,39 @@
         <v>200</v>
       </c>
       <c r="V57" s="3">
+        <v>200</v>
+      </c>
+      <c r="W57" s="3">
         <v>300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>400</v>
       </c>
       <c r="X57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1000</v>
-      </c>
-      <c r="I58" s="3">
-        <v>1100</v>
       </c>
       <c r="J58" s="3">
         <v>1100</v>
@@ -3763,28 +3896,28 @@
         <v>1100</v>
       </c>
       <c r="L58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1000</v>
       </c>
       <c r="N58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>600</v>
       </c>
-      <c r="P58" s="3">
-        <v>100</v>
-      </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3801,28 +3934,31 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E59" s="3">
         <v>11300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1500</v>
-      </c>
-      <c r="F59" s="3">
-        <v>1800</v>
       </c>
       <c r="G59" s="3">
         <v>1800</v>
       </c>
       <c r="H59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I59" s="3">
         <v>2000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
@@ -3831,31 +3967,31 @@
         <v>1800</v>
       </c>
       <c r="L59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>1500</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
-      </c>
       <c r="R59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>500</v>
       </c>
       <c r="T59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U59" s="3">
         <v>600</v>
@@ -3864,81 +4000,87 @@
         <v>600</v>
       </c>
       <c r="W59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
         <v>23400</v>
-      </c>
-      <c r="E60" s="3">
-        <v>3100</v>
       </c>
       <c r="F60" s="3">
         <v>3100</v>
       </c>
       <c r="G60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H60" s="3">
         <v>3200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3400</v>
       </c>
       <c r="I60" s="3">
         <v>3400</v>
       </c>
       <c r="J60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K60" s="3">
         <v>3300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
-      </c>
-      <c r="R60" s="3">
-        <v>800</v>
       </c>
       <c r="S60" s="3">
         <v>800</v>
       </c>
       <c r="T60" s="3">
+        <v>800</v>
+      </c>
+      <c r="U60" s="3">
         <v>900</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
       <c r="W60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X60" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3955,7 +4097,7 @@
         <v>1200</v>
       </c>
       <c r="H61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="I61" s="3">
         <v>1100</v>
@@ -3964,10 +4106,10 @@
         <v>1100</v>
       </c>
       <c r="K61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L61" s="3">
         <v>1200</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>1100</v>
@@ -3979,11 +4121,11 @@
         <v>1100</v>
       </c>
       <c r="P61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1200</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
@@ -4005,25 +4147,28 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E62" s="3">
         <v>1600</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4031,8 +4176,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>26200</v>
+      </c>
+      <c r="E66" s="3">
         <v>26100</v>
-      </c>
-      <c r="E66" s="3">
-        <v>4300</v>
       </c>
       <c r="F66" s="3">
         <v>4300</v>
       </c>
       <c r="G66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H66" s="3">
         <v>4400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>800</v>
       </c>
       <c r="S66" s="3">
         <v>800</v>
       </c>
       <c r="T66" s="3">
+        <v>800</v>
+      </c>
+      <c r="U66" s="3">
         <v>900</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="X66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,61 +4813,64 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-6500</v>
       </c>
       <c r="G72" s="3">
         <v>-6500</v>
       </c>
       <c r="H72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-6200</v>
       </c>
       <c r="K72" s="3">
         <v>-6200</v>
       </c>
       <c r="L72" s="3">
-        <v>-5000</v>
+        <v>-6200</v>
       </c>
       <c r="M72" s="3">
         <v>-5000</v>
       </c>
       <c r="N72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-4300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3500</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-19500</v>
       </c>
       <c r="R72" s="3">
         <v>-19500</v>
       </c>
       <c r="S72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="T72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-19200</v>
       </c>
       <c r="U72" s="3">
         <v>-19200</v>
@@ -4706,13 +4879,16 @@
         <v>-19200</v>
       </c>
       <c r="W72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="X72" s="3">
         <v>-19300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,61 +5097,64 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E76" s="3">
         <v>4600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-3600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-3700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-3900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-4000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3800</v>
       </c>
       <c r="K76" s="3">
         <v>-3800</v>
       </c>
       <c r="L76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q76" s="3">
-        <v>100</v>
-      </c>
       <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>-500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-400</v>
-      </c>
-      <c r="T76" s="3">
-        <v>-200</v>
       </c>
       <c r="U76" s="3">
         <v>-200</v>
@@ -4978,13 +5163,16 @@
         <v>-200</v>
       </c>
       <c r="W76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>100</v>
-      </c>
       <c r="H81" s="3">
+        <v>100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
       </c>
       <c r="J81" s="3">
         <v>-100</v>
       </c>
       <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,16 +5415,17 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,23 +5839,26 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-6700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5659,20 +5875,20 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P89" s="3">
         <v>-600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,31 +5939,32 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,20 +6150,23 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5963,14 +6192,14 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,23 +6532,26 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E100" s="3">
         <v>9800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6323,20 +6568,20 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>100</v>
       </c>
       <c r="O100" s="3">
+        <v>100</v>
+      </c>
+      <c r="P100" s="3">
         <v>500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -6358,40 +6603,43 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -6408,8 +6656,8 @@
       <c r="R101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T101" s="3">
         <v>0</v>
@@ -6426,22 +6674,25 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E102" s="3">
         <v>2400</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
       <c r="F102" s="3">
         <v>100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -6462,17 +6713,17 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>3500</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -835,23 +843,29 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F9" s="3">
         <v>3900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -915,14 +935,14 @@
         <v>400</v>
       </c>
       <c r="E10" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F10" s="3">
+        <v>400</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1030,10 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1045,23 +1073,23 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V12" s="3">
         <v>0</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,37 +1180,43 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-1900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-200</v>
       </c>
       <c r="H14" s="3">
         <v>-100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1185,55 +1225,61 @@
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-900</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
-      </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-100</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3">
         <v>100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
@@ -1270,11 +1316,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-      <c r="T15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>4</v>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
       </c>
       <c r="V15" s="3" t="s">
         <v>4</v>
@@ -1282,14 +1328,20 @@
       <c r="W15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="X15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,34 +1364,36 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>-100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
-      <c r="J17" s="3">
-        <v>100</v>
-      </c>
       <c r="K17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>100</v>
@@ -1348,69 +1402,75 @@
         <v>100</v>
       </c>
       <c r="N17" s="3">
+        <v>100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>100</v>
+      </c>
+      <c r="P17" s="3">
         <v>200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>-400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>-100</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>100</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-100</v>
-      </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-100</v>
@@ -1419,43 +1479,49 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>100</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,58 +1547,60 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E20" s="3">
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-800</v>
       </c>
       <c r="Q20" s="3">
         <v>-200</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="S20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
@@ -1552,97 +1620,109 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-500</v>
       </c>
       <c r="Q21" s="3">
         <v>-600</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>100</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>500</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
@@ -1653,29 +1733,29 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>400</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-900</v>
       </c>
       <c r="Q23" s="3">
         <v>-800</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1794,11 +1886,11 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1812,11 +1904,11 @@
       <c r="Q24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T24" s="3">
         <v>0</v>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-900</v>
       </c>
       <c r="Q26" s="3">
         <v>-800</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-900</v>
       </c>
       <c r="Q27" s="3">
         <v>-800</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,58 +2467,64 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>700</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>200</v>
-      </c>
-      <c r="P32" s="3">
-        <v>800</v>
       </c>
       <c r="Q32" s="3">
         <v>200</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-900</v>
       </c>
       <c r="Q33" s="3">
         <v>-800</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
-      <c r="U33" s="3">
-        <v>0</v>
-      </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-900</v>
       </c>
       <c r="Q35" s="3">
         <v>-800</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
-      <c r="U35" s="3">
-        <v>0</v>
-      </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,29 +2919,31 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F41" s="3">
         <v>3700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2789,17 +2963,17 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
@@ -2818,8 +2992,14 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,23 +3069,29 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F43" s="3">
         <v>4700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>6900</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
       </c>
@@ -2918,11 +3104,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2960,23 +3146,29 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1600</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
       </c>
@@ -2989,11 +3181,11 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
-      </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3031,22 +3223,28 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3078,11 +3276,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3096,35 +3294,41 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="F46" s="3">
         <v>9400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>11200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3144,17 +3348,17 @@
         <v>0</v>
       </c>
       <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
         <v>100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
       <c r="T46" s="3">
         <v>0</v>
       </c>
@@ -3173,8 +3377,14 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,23 +3454,29 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3300</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3273,11 +3489,11 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3315,22 +3531,28 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F49" s="3">
         <v>21300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>15900</v>
-      </c>
-      <c r="F49" s="3">
-        <v>400</v>
-      </c>
-      <c r="G49" s="3">
-        <v>400</v>
       </c>
       <c r="H49" s="3">
         <v>400</v>
@@ -3348,34 +3570,34 @@
         <v>400</v>
       </c>
       <c r="M49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="O49" s="3">
         <v>500</v>
       </c>
       <c r="P49" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>500</v>
+      </c>
+      <c r="R49" s="3">
         <v>600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>900</v>
-      </c>
-      <c r="R49" s="3">
-        <v>300</v>
-      </c>
-      <c r="S49" s="3">
-        <v>300</v>
       </c>
       <c r="T49" s="3">
         <v>300</v>
       </c>
       <c r="U49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="V49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>600</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3540,13 +3780,13 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
+        <v>300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>300</v>
+      </c>
+      <c r="H52" s="3">
         <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>100</v>
-      </c>
-      <c r="H52" s="3">
-        <v>100</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -3569,11 +3809,11 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3581,11 +3821,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,25 +3916,31 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>39900</v>
+      </c>
+      <c r="F54" s="3">
         <v>35400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>30700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>500</v>
-      </c>
-      <c r="H54" s="3">
-        <v>500</v>
       </c>
       <c r="I54" s="3">
         <v>500</v>
@@ -3697,10 +3949,10 @@
         <v>500</v>
       </c>
       <c r="K54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="L54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="M54" s="3">
         <v>600</v>
@@ -3715,22 +3967,22 @@
         <v>600</v>
       </c>
       <c r="Q54" s="3">
+        <v>600</v>
+      </c>
+      <c r="R54" s="3">
+        <v>600</v>
+      </c>
+      <c r="S54" s="3">
         <v>1100</v>
-      </c>
-      <c r="R54" s="3">
-        <v>300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>300</v>
       </c>
       <c r="T54" s="3">
         <v>300</v>
       </c>
       <c r="U54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="V54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>600</v>
@@ -3741,8 +3993,14 @@
       <c r="Y54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,25 +4055,27 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
         <v>7200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
-      </c>
-      <c r="G57" s="3">
-        <v>500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>500</v>
       </c>
       <c r="I57" s="3">
         <v>500</v>
@@ -3822,31 +4084,31 @@
         <v>500</v>
       </c>
       <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>500</v>
+      </c>
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>100</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>200</v>
@@ -3858,16 +4120,22 @@
         <v>200</v>
       </c>
       <c r="W57" s="3">
+        <v>200</v>
+      </c>
+      <c r="X57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3875,46 +4143,46 @@
         <v>2400</v>
       </c>
       <c r="E58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G58" s="3">
         <v>3100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
-      </c>
-      <c r="J58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>1100</v>
       </c>
       <c r="L58" s="3">
         <v>1100</v>
       </c>
       <c r="M58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>600</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>100</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -3923,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3937,150 +4205,168 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>12600</v>
+      </c>
+      <c r="F59" s="3">
         <v>9900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="I59" s="3">
-        <v>2000</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="L59" s="3">
         <v>1800</v>
       </c>
       <c r="M59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O59" s="3">
         <v>800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1500</v>
       </c>
       <c r="P59" s="3">
         <v>1000</v>
       </c>
       <c r="Q59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
         <v>500</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>500</v>
-      </c>
-      <c r="U59" s="3">
-        <v>600</v>
-      </c>
-      <c r="V59" s="3">
-        <v>600</v>
       </c>
       <c r="W59" s="3">
         <v>600</v>
       </c>
       <c r="X59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>21400</v>
+      </c>
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>23400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>800</v>
-      </c>
-      <c r="T60" s="3">
-        <v>800</v>
-      </c>
-      <c r="U60" s="3">
-        <v>900</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
       <c r="W60" s="3">
+        <v>900</v>
+      </c>
+      <c r="X60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z60" s="3">
         <v>900</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4100,22 +4386,22 @@
         <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="J61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>1100</v>
       </c>
       <c r="N61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="O61" s="3">
         <v>1100</v>
@@ -4124,14 +4410,14 @@
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S61" s="3">
         <v>1200</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
@@ -4150,40 +4436,46 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F62" s="3">
         <v>3200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1600</v>
       </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E66" s="3">
+        <v>28600</v>
+      </c>
+      <c r="F66" s="3">
         <v>26200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>26100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>800</v>
-      </c>
-      <c r="T66" s="3">
-        <v>800</v>
-      </c>
-      <c r="U66" s="3">
-        <v>900</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
+        <v>900</v>
+      </c>
+      <c r="X66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z66" s="3">
         <v>900</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-16700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-11300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-8400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-6500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-3500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-19500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-19500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-19200</v>
       </c>
       <c r="W72" s="3">
         <v>-19200</v>
       </c>
       <c r="X72" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="Y72" s="3">
         <v>-19200</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F76" s="3">
         <v>9200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-4000</v>
       </c>
       <c r="J76" s="3">
         <v>-3900</v>
       </c>
       <c r="K76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="M76" s="3">
         <v>-3800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-1400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-400</v>
-      </c>
-      <c r="U76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-200</v>
       </c>
       <c r="W76" s="3">
         <v>-200</v>
       </c>
       <c r="X76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-300</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-900</v>
       </c>
       <c r="Q81" s="3">
         <v>-800</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
-      <c r="U81" s="3">
-        <v>0</v>
-      </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,14 +5823,14 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,29 +6270,35 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-3900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-6700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -5878,23 +6312,23 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
         <v>0</v>
       </c>
@@ -5913,8 +6347,14 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,20 +6380,22 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
@@ -5966,11 +6408,11 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,26 +6607,32 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -6195,17 +6655,17 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,29 +7021,35 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E100" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F100" s="3">
         <v>6600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>9800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -6571,23 +7063,23 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
@@ -6606,20 +7098,26 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>4</v>
       </c>
@@ -6632,8 +7130,8 @@
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -6644,8 +7142,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>4</v>
@@ -6659,11 +7157,11 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3">
-        <v>0</v>
-      </c>
-      <c r="U101" s="3">
-        <v>0</v>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V101" s="3">
         <v>0</v>
@@ -6677,29 +7175,35 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E102" s="3">
         <v>1100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G102" s="3">
         <v>2400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6716,20 +7220,20 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
-      <c r="S102" s="3">
-        <v>0</v>
-      </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
@@ -6746,6 +7250,12 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,133 +665,137 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>3500</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
       <c r="I8" s="3">
         <v>0</v>
       </c>
@@ -849,26 +853,29 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="3">
         <v>4000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>3900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
@@ -926,26 +933,29 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1079,20 +1093,20 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V12" s="3">
-        <v>0</v>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,35 +1203,38 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1900</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-1200</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
@@ -1222,66 +1242,69 @@
         <v>0</v>
       </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-900</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="3">
         <v>200</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-100</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
-      </c>
-      <c r="F15" s="3">
-        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1322,8 +1345,8 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-      <c r="V15" s="3" t="s">
-        <v>4</v>
+      <c r="V15" s="3">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>4</v>
@@ -1334,14 +1357,17 @@
       <c r="Y15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
+      <c r="Z15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,37 +1392,38 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>7900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>7000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>-100</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>100</v>
@@ -1408,72 +1435,75 @@
         <v>100</v>
       </c>
       <c r="P17" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>-400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
       <c r="U17" s="3">
         <v>0</v>
       </c>
       <c r="V17" s="3">
+        <v>0</v>
+      </c>
+      <c r="W17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
       <c r="X17" s="3">
         <v>0</v>
       </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
         <v>-100</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>100</v>
       </c>
       <c r="AA17" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-3500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-5000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-100</v>
@@ -1485,43 +1515,46 @@
         <v>-100</v>
       </c>
       <c r="P18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
         <v>0</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
         <v>0</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>100</v>
-      </c>
-      <c r="Z18" s="3">
-        <v>-100</v>
       </c>
       <c r="AA18" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,62 +1582,63 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-900</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-200</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
@@ -1626,105 +1660,111 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-4200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-4600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-2900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>100</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
       <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-100</v>
       </c>
       <c r="L21" s="3">
         <v>-100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
         <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
         <v>100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
-        <v>300</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>300</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1739,26 +1779,26 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>100</v>
       </c>
       <c r="P22" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="3">
         <v>200</v>
       </c>
       <c r="R22" s="3">
+        <v>200</v>
+      </c>
+      <c r="S22" s="3">
         <v>400</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
         <v>-4200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-5400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-2900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O23" s="3">
         <v>-1200</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
         <v>0</v>
       </c>
       <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
         <v>0</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>100</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>-100</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1892,8 +1938,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1910,8 +1956,8 @@
       <c r="S24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
         <v>-4200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-5400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-2900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O26" s="3">
         <v>-1200</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
         <v>0</v>
       </c>
       <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-200</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
         <v>0</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>100</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>-100</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-5300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O27" s="3">
         <v>-1200</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
         <v>0</v>
       </c>
       <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-200</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
         <v>0</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>100</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>-100</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,62 +2540,65 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>900</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>200</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-5300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O33" s="3">
         <v>-1200</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
         <v>0</v>
       </c>
       <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-200</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
         <v>0</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>100</v>
-      </c>
-      <c r="Z33" s="3">
-        <v>-100</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-5300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O35" s="3">
         <v>-1200</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
         <v>0</v>
       </c>
       <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-200</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
         <v>0</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>100</v>
-      </c>
-      <c r="Z35" s="3">
-        <v>-100</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,31 +3007,32 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E41" s="3">
         <v>2500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>3700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>2600</v>
-      </c>
-      <c r="H41" s="3">
-        <v>100</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
       </c>
       <c r="J41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
@@ -2969,14 +3056,14 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,26 +3165,29 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>7000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6900</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3110,8 +3203,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3152,26 +3245,29 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>300</v>
+      </c>
+      <c r="E44" s="3">
         <v>1700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>1900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1600</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3187,8 +3283,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3229,26 +3325,29 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
@@ -3282,8 +3381,8 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3300,38 +3399,41 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z45" s="3">
-        <v>0</v>
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E46" s="3">
         <v>8900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>13800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>9400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>11200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>100</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3354,14 +3456,14 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
         <v>100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
       </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
       <c r="U46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,26 +3565,29 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E48" s="3">
         <v>5000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>4800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +3603,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3537,25 +3645,28 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E49" s="3">
         <v>19800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>20900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>21300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>15900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>400</v>
       </c>
       <c r="I49" s="3">
         <v>400</v>
@@ -3576,7 +3687,7 @@
         <v>400</v>
       </c>
       <c r="O49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="P49" s="3">
         <v>500</v>
@@ -3585,13 +3696,13 @@
         <v>500</v>
       </c>
       <c r="R49" s="3">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
         <v>600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>900</v>
-      </c>
-      <c r="T49" s="3">
-        <v>300</v>
       </c>
       <c r="U49" s="3">
         <v>300</v>
@@ -3600,7 +3711,7 @@
         <v>300</v>
       </c>
       <c r="W49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="X49" s="3">
         <v>600</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3786,10 +3906,10 @@
         <v>300</v>
       </c>
       <c r="H52" s="3">
+        <v>300</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -3815,8 +3935,8 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>100</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>4</v>
@@ -3827,8 +3947,8 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
+      <c r="V52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,28 +4045,31 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E54" s="3">
         <v>34100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>39900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>30700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
-      </c>
-      <c r="I54" s="3">
-        <v>500</v>
       </c>
       <c r="J54" s="3">
         <v>500</v>
@@ -3955,7 +4081,7 @@
         <v>500</v>
       </c>
       <c r="M54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>600</v>
@@ -3973,10 +4099,10 @@
         <v>600</v>
       </c>
       <c r="S54" s="3">
+        <v>600</v>
+      </c>
+      <c r="T54" s="3">
         <v>1100</v>
-      </c>
-      <c r="T54" s="3">
-        <v>300</v>
       </c>
       <c r="U54" s="3">
         <v>300</v>
@@ -3985,7 +4111,7 @@
         <v>300</v>
       </c>
       <c r="W54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="X54" s="3">
         <v>600</v>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,28 +4187,29 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>3400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>6500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>500</v>
       </c>
       <c r="J57" s="3">
         <v>500</v>
@@ -4090,19 +4221,19 @@
         <v>500</v>
       </c>
       <c r="M57" s="3">
+        <v>500</v>
+      </c>
+      <c r="N57" s="3">
         <v>400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>300</v>
       </c>
       <c r="O57" s="3">
         <v>300</v>
       </c>
       <c r="P57" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>100</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -4111,7 +4242,7 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
         <v>200</v>
@@ -4126,16 +4257,19 @@
         <v>200</v>
       </c>
       <c r="Y57" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z57" s="3">
         <v>300</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>400</v>
       </c>
       <c r="AA57" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4149,22 +4283,22 @@
         <v>2400</v>
       </c>
       <c r="G58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H58" s="3">
         <v>3100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1100</v>
       </c>
       <c r="M58" s="3">
         <v>1100</v>
@@ -4173,29 +4307,29 @@
         <v>1100</v>
       </c>
       <c r="O58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="P58" s="3">
         <v>1000</v>
       </c>
       <c r="Q58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>600</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4211,37 +4345,40 @@
       <c r="AA58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E59" s="3">
         <v>11700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>12600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1500</v>
-      </c>
-      <c r="I59" s="3">
-        <v>1800</v>
       </c>
       <c r="J59" s="3">
         <v>1800</v>
       </c>
       <c r="K59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L59" s="3">
         <v>2000</v>
-      </c>
-      <c r="L59" s="3">
-        <v>1800</v>
       </c>
       <c r="M59" s="3">
         <v>1800</v>
@@ -4250,31 +4387,31 @@
         <v>1800</v>
       </c>
       <c r="O59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1500</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1200</v>
       </c>
-      <c r="T59" s="3">
-        <v>0</v>
-      </c>
       <c r="U59" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>500</v>
       </c>
       <c r="W59" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="X59" s="3">
         <v>600</v>
@@ -4283,95 +4420,101 @@
         <v>600</v>
       </c>
       <c r="Z59" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AA59" s="3">
         <v>500</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E60" s="3">
         <v>17500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>21400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>19500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>23400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3100</v>
       </c>
       <c r="I60" s="3">
         <v>3100</v>
       </c>
       <c r="J60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K60" s="3">
         <v>3200</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3400</v>
       </c>
       <c r="L60" s="3">
         <v>3400</v>
       </c>
       <c r="M60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>800</v>
       </c>
       <c r="V60" s="3">
         <v>800</v>
       </c>
       <c r="W60" s="3">
+        <v>800</v>
+      </c>
+      <c r="X60" s="3">
         <v>900</v>
-      </c>
-      <c r="X60" s="3">
-        <v>800</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
       <c r="Z60" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AA60" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E61" s="3">
         <v>1200</v>
@@ -4392,7 +4535,7 @@
         <v>1200</v>
       </c>
       <c r="K61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L61" s="3">
         <v>1100</v>
@@ -4401,10 +4544,10 @@
         <v>1100</v>
       </c>
       <c r="N61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O61" s="3">
         <v>1200</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1100</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
@@ -4416,11 +4559,11 @@
         <v>1100</v>
       </c>
       <c r="S61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T61" s="3">
         <v>1200</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4442,34 +4585,37 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
         <v>1800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>3200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>1600</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22400</v>
+      </c>
+      <c r="E66" s="3">
         <v>22800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>28600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>26200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>26100</v>
-      </c>
-      <c r="H66" s="3">
-        <v>4300</v>
       </c>
       <c r="I66" s="3">
         <v>4300</v>
       </c>
       <c r="J66" s="3">
+        <v>4300</v>
+      </c>
+      <c r="K66" s="3">
         <v>4400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>800</v>
       </c>
       <c r="V66" s="3">
         <v>800</v>
       </c>
       <c r="W66" s="3">
+        <v>800</v>
+      </c>
+      <c r="X66" s="3">
         <v>900</v>
-      </c>
-      <c r="X66" s="3">
-        <v>800</v>
       </c>
       <c r="Y66" s="3">
         <v>800</v>
       </c>
       <c r="Z66" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AA66" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,70 +5335,73 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-29700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-20800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-16700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-11300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-8400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-6700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6500</v>
       </c>
       <c r="J72" s="3">
         <v>-6500</v>
       </c>
       <c r="K72" s="3">
+        <v>-6500</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-6400</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-6200</v>
       </c>
       <c r="N72" s="3">
         <v>-6200</v>
       </c>
       <c r="O72" s="3">
-        <v>-5000</v>
+        <v>-6200</v>
       </c>
       <c r="P72" s="3">
         <v>-5000</v>
       </c>
       <c r="Q72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-4300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3500</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-19500</v>
       </c>
       <c r="U72" s="3">
         <v>-19500</v>
       </c>
       <c r="V72" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="W72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-19200</v>
       </c>
       <c r="X72" s="3">
         <v>-19200</v>
@@ -5236,13 +5410,16 @@
         <v>-19200</v>
       </c>
       <c r="Z72" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-19300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-19200</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,70 +5655,73 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>11300</v>
+        <v>14300</v>
       </c>
       <c r="E76" s="3">
         <v>11300</v>
       </c>
       <c r="F76" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G76" s="3">
         <v>9200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-3600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-3900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-4000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-3900</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3800</v>
       </c>
       <c r="N76" s="3">
         <v>-3800</v>
       </c>
       <c r="O76" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="P76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-3000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-2200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-1400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-400</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-200</v>
       </c>
       <c r="X76" s="3">
         <v>-200</v>
@@ -5544,13 +5730,16 @@
         <v>-200</v>
       </c>
       <c r="Z76" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="AA76" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-5300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O81" s="3">
         <v>-1200</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
         <v>0</v>
       </c>
       <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-200</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
         <v>0</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>100</v>
-      </c>
-      <c r="Z81" s="3">
-        <v>-100</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,26 +6012,27 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,32 +6490,35 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-6300</v>
+        <v>32000</v>
       </c>
       <c r="E89" s="3">
         <v>-6300</v>
       </c>
       <c r="F89" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="G89" s="3">
         <v>-3900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-6700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -6318,20 +6535,20 @@
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-600</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,23 +6602,24 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>-100</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
@@ -6414,8 +6635,8 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,29 +6840,32 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
         <v>0</v>
       </c>
@@ -6661,14 +6891,14 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,32 +7270,35 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E100" s="3">
         <v>4700</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>7700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>6600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>9800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7069,20 +7315,20 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
       </c>
       <c r="R100" s="3">
+        <v>100</v>
+      </c>
+      <c r="S100" s="3">
         <v>500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
@@ -7104,23 +7350,26 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-400</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7136,17 +7385,17 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -7163,8 +7412,8 @@
       <c r="U101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -7181,31 +7430,34 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
         <v>-2300</v>
-      </c>
-      <c r="E102" s="3">
-        <v>1100</v>
       </c>
       <c r="F102" s="3">
         <v>1100</v>
       </c>
       <c r="G102" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H102" s="3">
         <v>2400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>100</v>
       </c>
       <c r="I102" s="3">
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -7226,17 +7478,17 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
-        <v>0</v>
-      </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -785,7 +785,7 @@
         <v>1400</v>
       </c>
       <c r="E8" s="3">
-        <v>4400</v>
+        <v>6500</v>
       </c>
       <c r="F8" s="3">
         <v>2000</v>
@@ -865,7 +865,7 @@
         <v>5800</v>
       </c>
       <c r="E9" s="3">
-        <v>4000</v>
+        <v>6300</v>
       </c>
       <c r="F9" s="3">
         <v>2300</v>
@@ -945,7 +945,7 @@
         <v>-4400</v>
       </c>
       <c r="E10" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>-300</v>
@@ -1215,7 +1215,7 @@
         <v>-200</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
@@ -1295,7 +1295,7 @@
         <v>600</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1398,11 +1398,11 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>10900</v>
       </c>
       <c r="E17" s="3">
-        <v>7900</v>
+        <v>15500</v>
       </c>
       <c r="F17" s="3">
         <v>7000</v>
@@ -1478,11 +1478,11 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-9500</v>
       </c>
       <c r="E18" s="3">
-        <v>-3500</v>
+        <v>-9000</v>
       </c>
       <c r="F18" s="3">
         <v>-5000</v>
@@ -1588,11 +1588,11 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>700</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1668,11 +1668,11 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-8200</v>
       </c>
       <c r="E21" s="3">
-        <v>-4200</v>
+        <v>-8800</v>
       </c>
       <c r="F21" s="3">
         <v>-4600</v>
@@ -1748,11 +1748,11 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>200</v>
+      <c r="D22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F22" s="3">
         <v>500</v>
@@ -1828,11 +1828,11 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-8800</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-9600</v>
       </c>
       <c r="F23" s="3">
         <v>-5400</v>
@@ -2068,11 +2068,11 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-8800</v>
       </c>
       <c r="E26" s="3">
-        <v>-4200</v>
+        <v>-9600</v>
       </c>
       <c r="F26" s="3">
         <v>-5400</v>
@@ -2148,11 +2148,11 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-8900</v>
       </c>
       <c r="E27" s="3">
-        <v>-4000</v>
+        <v>-9200</v>
       </c>
       <c r="F27" s="3">
         <v>-5300</v>
@@ -2548,11 +2548,11 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>-700</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -2628,11 +2628,11 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-8900</v>
       </c>
       <c r="E33" s="3">
-        <v>-4000</v>
+        <v>-9200</v>
       </c>
       <c r="F33" s="3">
         <v>-5300</v>
@@ -2788,11 +2788,11 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-8900</v>
       </c>
       <c r="E35" s="3">
-        <v>-4000</v>
+        <v>-9200</v>
       </c>
       <c r="F35" s="3">
         <v>-5300</v>
@@ -4194,7 +4194,7 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4000</v>
+        <v>3300</v>
       </c>
       <c r="E57" s="3">
         <v>3400</v>
@@ -4354,7 +4354,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10800</v>
+        <v>11600</v>
       </c>
       <c r="E59" s="3">
         <v>11700</v>
@@ -5664,7 +5664,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14300</v>
+        <v>11900</v>
       </c>
       <c r="E76" s="3">
         <v>11300</v>
@@ -5908,11 +5908,11 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-8900</v>
       </c>
       <c r="E81" s="3">
-        <v>-4000</v>
+        <v>-9200</v>
       </c>
       <c r="F81" s="3">
         <v>-5300</v>
@@ -6022,7 +6022,7 @@
         <v>600</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -6499,10 +6499,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>32000</v>
+        <v>-6900</v>
       </c>
       <c r="E89" s="3">
-        <v>-6300</v>
+        <v>-12600</v>
       </c>
       <c r="F89" s="3">
         <v>-6300</v>
@@ -6611,8 +6611,8 @@
       <c r="D91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>-400</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -6852,7 +6852,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
@@ -7282,7 +7282,7 @@
         <v>11400</v>
       </c>
       <c r="E100" s="3">
-        <v>4700</v>
+        <v>12400</v>
       </c>
       <c r="F100" s="3">
         <v>7700</v>
@@ -7359,10 +7359,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>1900</v>
+        <v>-900</v>
       </c>
       <c r="E101" s="3">
-        <v>-300</v>
+        <v>-500</v>
       </c>
       <c r="F101" s="3">
         <v>-200</v>
@@ -7438,11 +7438,11 @@
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>4</v>
+      <c r="D102" s="3">
+        <v>3500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2300</v>
+        <v>-1100</v>
       </c>
       <c r="F102" s="3">
         <v>1100</v>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -6609,25 +6609,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>-700</v>
       </c>
       <c r="G91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,150 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>6500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>4300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -856,32 +863,38 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F9" s="3">
         <v>5800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>6300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>3900</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -936,32 +949,38 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F10" s="3">
         <v>-4400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1016,8 +1035,14 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1071,10 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1096,23 +1123,23 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y12" s="3">
         <v>0</v>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,46 +1239,52 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E14" s="3">
+        <v>11700</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>500</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1900</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-1200</v>
-      </c>
-      <c r="I14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-200</v>
       </c>
       <c r="K14" s="3">
         <v>-100</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1254,64 +1293,70 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-900</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>100</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3">
         <v>200</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
         <v>-100</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>200</v>
+      </c>
+      <c r="E15" s="3">
+        <v>700</v>
+      </c>
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
@@ -1348,11 +1393,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>4</v>
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
       </c>
       <c r="Y15" s="3" t="s">
         <v>4</v>
@@ -1360,14 +1405,20 @@
       <c r="Z15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,43 +1444,45 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>17800</v>
+      </c>
+      <c r="F17" s="3">
         <v>10900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>15500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>7000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>-100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
-        <v>100</v>
-      </c>
       <c r="N17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O17" s="3">
         <v>100</v>
@@ -1438,78 +1491,84 @@
         <v>100</v>
       </c>
       <c r="Q17" s="3">
+        <v>100</v>
+      </c>
+      <c r="R17" s="3">
+        <v>100</v>
+      </c>
+      <c r="S17" s="3">
         <v>200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>-400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
-        <v>0</v>
-      </c>
-      <c r="V17" s="3">
-        <v>0</v>
-      </c>
       <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>0</v>
-      </c>
       <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
         <v>-100</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>100</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-9500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-9000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-5000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-1300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-100</v>
-      </c>
       <c r="N18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
         <v>-100</v>
@@ -1518,43 +1577,49 @@
         <v>-100</v>
       </c>
       <c r="Q18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
-        <v>0</v>
-      </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
-        <v>0</v>
-      </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>100</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,67 +1648,69 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-800</v>
       </c>
       <c r="T20" s="3">
         <v>-200</v>
       </c>
       <c r="U20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="V20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="W20" s="3">
         <v>0</v>
@@ -1663,115 +1730,127 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-8200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-8800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-4600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-2900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>100</v>
       </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-500</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>100</v>
       </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>300</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
@@ -1782,29 +1861,29 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>400</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-9600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-5400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-2900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-1700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>100</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-900</v>
       </c>
       <c r="T23" s="3">
         <v>-800</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
       <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
         <v>100</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-100</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1941,11 +2032,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>4</v>
@@ -1959,11 +2050,11 @@
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1983,8 +2074,14 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-17100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-9600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-5400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-2900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-1700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>100</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-900</v>
       </c>
       <c r="T26" s="3">
         <v>-800</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
       <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
         <v>100</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-100</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-9200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-5300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-1700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-900</v>
       </c>
       <c r="T27" s="3">
         <v>-800</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
       <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
         <v>100</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-100</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,67 +2676,73 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>200</v>
-      </c>
-      <c r="S32" s="3">
-        <v>800</v>
       </c>
       <c r="T32" s="3">
         <v>200</v>
       </c>
       <c r="U32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="V32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W32" s="3">
         <v>0</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-9200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-5300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-1700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-900</v>
       </c>
       <c r="T33" s="3">
         <v>-800</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>0</v>
-      </c>
       <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
         <v>100</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-100</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-9200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-5300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-1700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-900</v>
       </c>
       <c r="T35" s="3">
         <v>-800</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>0</v>
-      </c>
       <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
         <v>100</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-100</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,38 +3179,40 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F41" s="3">
         <v>6000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>4800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>2600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3059,17 +3232,17 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
@@ -3088,8 +3261,14 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,32 +3347,38 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E43" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F43" s="3">
         <v>3900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>7000</v>
       </c>
-      <c r="G43" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
+        <v>9700</v>
+      </c>
+      <c r="J43" s="3">
         <v>6900</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3206,11 +3391,11 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3248,32 +3433,38 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>1700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1900</v>
       </c>
-      <c r="G44" s="3">
-        <v>900</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
         <v>1600</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3286,11 +3477,11 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
-      </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3328,31 +3519,37 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
-      </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
-      <c r="G45" s="3">
-        <v>200</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3384,11 +3581,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3402,44 +3599,50 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F46" s="3">
         <v>10900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>8900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>13800</v>
       </c>
-      <c r="G46" s="3">
-        <v>9400</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J46" s="3">
         <v>11200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3459,17 +3662,17 @@
         <v>0</v>
       </c>
       <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
         <v>100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
       <c r="W46" s="3">
         <v>0</v>
       </c>
@@ -3488,31 +3691,37 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
+        <v>2600</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
       </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3568,32 +3777,38 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F48" s="3">
         <v>4400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>5000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>4400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3300</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,11 +3821,11 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
-      </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3648,31 +3863,37 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F49" s="3">
         <v>18700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>19800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>20900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>21300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>15900</v>
-      </c>
-      <c r="I49" s="3">
-        <v>400</v>
-      </c>
-      <c r="J49" s="3">
-        <v>400</v>
       </c>
       <c r="K49" s="3">
         <v>400</v>
@@ -3690,34 +3911,34 @@
         <v>400</v>
       </c>
       <c r="P49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="Q49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="R49" s="3">
         <v>500</v>
       </c>
       <c r="S49" s="3">
+        <v>500</v>
+      </c>
+      <c r="T49" s="3">
+        <v>500</v>
+      </c>
+      <c r="U49" s="3">
         <v>600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>900</v>
-      </c>
-      <c r="U49" s="3">
-        <v>300</v>
-      </c>
-      <c r="V49" s="3">
-        <v>300</v>
       </c>
       <c r="W49" s="3">
         <v>300</v>
       </c>
       <c r="X49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z49" s="3">
         <v>600</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4121,22 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
-        <v>300</v>
+        <v>700</v>
       </c>
       <c r="F52" s="3">
         <v>300</v>
@@ -3909,13 +4148,13 @@
         <v>300</v>
       </c>
       <c r="I52" s="3">
+        <v>800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>300</v>
+      </c>
+      <c r="K52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
       </c>
       <c r="L52" s="3">
         <v>100</v>
@@ -3938,11 +4177,11 @@
       <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3950,11 +4189,11 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
-      <c r="X52" s="3">
-        <v>0</v>
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,34 +4293,40 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F54" s="3">
         <v>34400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>34100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>39900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>35400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>30700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>500</v>
-      </c>
-      <c r="K54" s="3">
-        <v>500</v>
       </c>
       <c r="L54" s="3">
         <v>500</v>
@@ -4084,10 +4335,10 @@
         <v>500</v>
       </c>
       <c r="N54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="O54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P54" s="3">
         <v>600</v>
@@ -4102,22 +4353,22 @@
         <v>600</v>
       </c>
       <c r="T54" s="3">
+        <v>600</v>
+      </c>
+      <c r="U54" s="3">
+        <v>600</v>
+      </c>
+      <c r="V54" s="3">
         <v>1100</v>
-      </c>
-      <c r="U54" s="3">
-        <v>300</v>
-      </c>
-      <c r="V54" s="3">
-        <v>300</v>
       </c>
       <c r="W54" s="3">
         <v>300</v>
       </c>
       <c r="X54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Y54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="Z54" s="3">
         <v>600</v>
@@ -4128,8 +4379,14 @@
       <c r="AB54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,34 +4447,36 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="F57" s="3">
         <v>3300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3">
-        <v>7200</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="J57" s="3">
         <v>8900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
-      </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>500</v>
       </c>
       <c r="L57" s="3">
         <v>500</v>
@@ -4224,31 +4485,31 @@
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
+        <v>500</v>
+      </c>
+      <c r="P57" s="3">
         <v>400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>100</v>
-      </c>
-      <c r="S57" s="3">
-        <v>100</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W57" s="3">
         <v>200</v>
@@ -4260,24 +4521,30 @@
         <v>200</v>
       </c>
       <c r="Z57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB57" s="3">
         <v>300</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="F58" s="3">
         <v>2400</v>
@@ -4286,46 +4553,46 @@
         <v>2400</v>
       </c>
       <c r="H58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J58" s="3">
         <v>3100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="N58" s="3">
-        <v>1100</v>
       </c>
       <c r="O58" s="3">
         <v>1100</v>
       </c>
       <c r="P58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>600</v>
-      </c>
-      <c r="T58" s="3">
-        <v>100</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -4334,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
         <v>0</v>
@@ -4348,179 +4615,197 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>6500</v>
+      </c>
+      <c r="F59" s="3">
         <v>11600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>11700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>12600</v>
       </c>
-      <c r="G59" s="3">
-        <v>9900</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>12200</v>
+      </c>
+      <c r="J59" s="3">
         <v>11300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
-      </c>
-      <c r="K59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L59" s="3">
-        <v>2000</v>
       </c>
       <c r="M59" s="3">
         <v>1800</v>
       </c>
       <c r="N59" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="O59" s="3">
         <v>1800</v>
       </c>
       <c r="P59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R59" s="3">
         <v>800</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="R59" s="3">
-        <v>1500</v>
       </c>
       <c r="S59" s="3">
         <v>1000</v>
       </c>
       <c r="T59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V59" s="3">
         <v>1200</v>
       </c>
-      <c r="U59" s="3">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
         <v>500</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>500</v>
-      </c>
-      <c r="X59" s="3">
-        <v>600</v>
-      </c>
-      <c r="Y59" s="3">
-        <v>600</v>
       </c>
       <c r="Z59" s="3">
         <v>600</v>
       </c>
       <c r="AA59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC59" s="3">
         <v>500</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="F60" s="3">
         <v>17300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>21400</v>
       </c>
-      <c r="G60" s="3">
-        <v>19500</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>19700</v>
+      </c>
+      <c r="J60" s="3">
         <v>23400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>800</v>
-      </c>
-      <c r="W60" s="3">
-        <v>800</v>
-      </c>
-      <c r="X60" s="3">
-        <v>900</v>
       </c>
       <c r="Y60" s="3">
         <v>800</v>
       </c>
       <c r="Z60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC60" s="3">
         <v>900</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F61" s="3">
         <v>1100</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1200</v>
       </c>
       <c r="G61" s="3">
         <v>1200</v>
@@ -4529,7 +4814,7 @@
         <v>1200</v>
       </c>
       <c r="I61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1200</v>
@@ -4538,22 +4823,22 @@
         <v>1200</v>
       </c>
       <c r="L61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="M61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="N61" s="3">
         <v>1100</v>
       </c>
       <c r="O61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="R61" s="3">
         <v>1100</v>
@@ -4562,14 +4847,14 @@
         <v>1100</v>
       </c>
       <c r="T61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V61" s="3">
         <v>1200</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
@@ -4588,49 +4873,55 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F62" s="3">
         <v>1700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>1800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3600</v>
       </c>
-      <c r="G62" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J62" s="3">
         <v>1600</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5217,100 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>24500</v>
+      </c>
+      <c r="F66" s="3">
         <v>22400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>22800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>28600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>26200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>26100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>800</v>
-      </c>
-      <c r="W66" s="3">
-        <v>800</v>
-      </c>
-      <c r="X66" s="3">
-        <v>900</v>
       </c>
       <c r="Y66" s="3">
         <v>800</v>
       </c>
       <c r="Z66" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC66" s="3">
         <v>900</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-46600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-29700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-20800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-16700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-11300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-8400</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-6700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-6500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-4300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-3500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-19500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-19500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="X72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-19200</v>
       </c>
       <c r="Z72" s="3">
         <v>-19200</v>
       </c>
       <c r="AA72" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="AB72" s="3">
         <v>-19200</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +6023,100 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F76" s="3">
         <v>11900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>11300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>9200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>4600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-3600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-4000</v>
       </c>
       <c r="M76" s="3">
         <v>-3900</v>
       </c>
       <c r="N76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="P76" s="3">
         <v>-3800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-3800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-2800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-3000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-1400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-400</v>
-      </c>
-      <c r="X76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>-200</v>
       </c>
       <c r="Z76" s="3">
         <v>-200</v>
       </c>
       <c r="AA76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC76" s="3">
         <v>-300</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-9200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-5300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-1700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-900</v>
       </c>
       <c r="T81" s="3">
         <v>-800</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>0</v>
-      </c>
       <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB81" s="3">
         <v>100</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-100</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,32 +6408,34 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>200</v>
+      </c>
+      <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
         <v>600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,38 +6920,44 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F89" s="3">
         <v>-6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-3900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -6538,23 +6971,23 @@
         <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +7006,14 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,46 +7042,48 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,35 +7296,41 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="E94" s="3">
-        <v>-500</v>
+        <v>-4500</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6894,17 +7353,17 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
       <c r="W94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,38 +7758,44 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>400</v>
+      </c>
+      <c r="F100" s="3">
         <v>11400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>12400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>7700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>6600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>9800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>700</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -7318,23 +7809,23 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
       <c r="W100" s="3">
         <v>0</v>
       </c>
@@ -7353,29 +7844,35 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-900</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-200</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-400</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7388,8 +7885,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -7400,8 +7897,8 @@
       <c r="Q101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
       </c>
       <c r="S101" s="3" t="s">
         <v>4</v>
@@ -7415,11 +7912,11 @@
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7433,38 +7930,44 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F102" s="3">
         <v>3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>2400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
@@ -7481,20 +7984,20 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
-        <v>0</v>
-      </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
       <c r="W102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +8014,12 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/DPLS_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="92">
   <si>
     <t>DPLS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,156 +665,164 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>400</v>
+      </c>
+      <c r="F8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>6500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>2000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>4300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -869,38 +877,44 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>5800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>6300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>2300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>3900</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>2800</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -955,38 +969,44 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-1200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>-4400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>200</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1041,8 +1061,14 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1073,8 +1099,10 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1129,23 +1157,23 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W12" s="3">
         <v>100</v>
       </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA12" s="3">
         <v>0</v>
@@ -1159,8 +1187,14 @@
       <c r="AD12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,52 +1279,58 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="3">
         <v>6800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>11700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-1900</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-200</v>
       </c>
       <c r="M14" s="3">
         <v>-100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1299,70 +1339,76 @@
         <v>100</v>
       </c>
       <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-900</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>100</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <v>0</v>
-      </c>
       <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
         <v>200</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
       <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
         <v>-100</v>
       </c>
-      <c r="AC14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
+        <v>200</v>
+      </c>
+      <c r="G15" s="3">
         <v>700</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1399,11 +1445,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-      <c r="Y15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>4</v>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>0</v>
       </c>
       <c r="AA15" s="3" t="s">
         <v>4</v>
@@ -1411,14 +1457,20 @@
       <c r="AB15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC15" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,49 +1498,51 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>16100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>17800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>10900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>7000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>-100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
-      <c r="O17" s="3">
-        <v>100</v>
-      </c>
       <c r="P17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>100</v>
@@ -1497,84 +1551,90 @@
         <v>100</v>
       </c>
       <c r="S17" s="3">
+        <v>100</v>
+      </c>
+      <c r="T17" s="3">
+        <v>100</v>
+      </c>
+      <c r="U17" s="3">
         <v>200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>-400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
-        <v>0</v>
-      </c>
-      <c r="X17" s="3">
-        <v>0</v>
-      </c>
       <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
       <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="3">
         <v>-100</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>100</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AF17" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-14600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-16600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-9500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-9000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-5000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-3900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-1300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-100</v>
-      </c>
       <c r="P18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-100</v>
@@ -1583,43 +1643,49 @@
         <v>-100</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="3">
         <v>100</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-100</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,73 +1716,75 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-900</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>500</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-800</v>
       </c>
       <c r="V20" s="3">
         <v>-200</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="X20" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="Y20" s="3">
         <v>0</v>
@@ -1736,94 +1804,106 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-8200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-8800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-4600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-2900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>0</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="3">
         <v>100</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1831,32 +1911,32 @@
         <v>100</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>100</v>
+      </c>
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>500</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
@@ -1867,29 +1947,29 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="T22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="U22" s="3">
         <v>200</v>
       </c>
-      <c r="T22" s="3">
+      <c r="V22" s="3">
         <v>200</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>400</v>
       </c>
-      <c r="V22" s="3">
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
@@ -1908,94 +1988,106 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-17100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-9600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-5400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-2900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-1700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>100</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-900</v>
       </c>
       <c r="V23" s="3">
         <v>-800</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
       <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
         <v>100</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-100</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2038,11 +2130,11 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>4</v>
@@ -2056,11 +2148,11 @@
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -2080,8 +2172,14 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2264,198 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-14800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-17100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-8800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-9600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-5400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-2900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-1700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>100</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-900</v>
       </c>
       <c r="V26" s="3">
         <v>-800</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
       <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
         <v>100</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-100</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-14000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-17200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-8900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-9200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-1700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>100</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-900</v>
       </c>
       <c r="V27" s="3">
         <v>-800</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
       <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
         <v>100</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-100</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2540,14 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2632,14 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2724,14 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,73 +2816,79 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>900</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-500</v>
-      </c>
-      <c r="T32" s="3">
-        <v>200</v>
-      </c>
-      <c r="U32" s="3">
-        <v>800</v>
       </c>
       <c r="V32" s="3">
         <v>200</v>
       </c>
       <c r="W32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="X32" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y32" s="3">
         <v>0</v>
@@ -2768,94 +2908,106 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-14000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-17200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-8900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-9200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-1700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>100</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-900</v>
       </c>
       <c r="V33" s="3">
         <v>-800</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>0</v>
-      </c>
       <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
         <v>100</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-100</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3092,203 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-14000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-17200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-8900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-9200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-1700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>100</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-900</v>
       </c>
       <c r="V35" s="3">
         <v>-800</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>0</v>
-      </c>
       <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
         <v>100</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-100</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3319,10 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,44 +3353,46 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>2100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>2500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>4800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>3700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>2600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -3238,17 +3412,17 @@
         <v>0</v>
       </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>200</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
@@ -3267,8 +3441,14 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,38 +3533,44 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F43" s="3">
         <v>2800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>4700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>3900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>4400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>7000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>9700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>6900</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
@@ -3397,11 +3583,11 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
-      </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3439,8 +3625,14 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3451,26 +3643,26 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>1900</v>
       </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
         <v>1600</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
@@ -3483,11 +3675,11 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3525,8 +3717,14 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3537,25 +3735,25 @@
         <v>200</v>
       </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
-      <c r="I45" s="3">
-        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3587,11 +3785,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3605,50 +3803,56 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC45" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>3600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>7000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>10900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>8900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>13800</v>
       </c>
       <c r="I46" s="3">
         <v>8900</v>
       </c>
       <c r="J46" s="3">
+        <v>13800</v>
+      </c>
+      <c r="K46" s="3">
+        <v>8900</v>
+      </c>
+      <c r="L46" s="3">
         <v>11200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>100</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
       <c r="O46" s="3">
         <v>0</v>
       </c>
@@ -3668,17 +3872,17 @@
         <v>0</v>
       </c>
       <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
         <v>100</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
       <c r="Y46" s="3">
         <v>0</v>
       </c>
@@ -3697,28 +3901,34 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E47" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F47" s="3">
         <v>2800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>2600</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I47" s="3">
-        <v>0</v>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J47" s="3" t="s">
         <v>4</v>
@@ -3726,8 +3936,8 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -3783,38 +3993,44 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F48" s="3">
         <v>4600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>4700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>4400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>5000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>4800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>4400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3300</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3827,11 +4043,11 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
-      </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3869,37 +4085,43 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>200</v>
+      </c>
+      <c r="E49" s="3">
+        <v>200</v>
+      </c>
+      <c r="F49" s="3">
         <v>300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>7100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>18700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>19800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>20900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>21300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>15900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>400</v>
-      </c>
-      <c r="L49" s="3">
-        <v>400</v>
       </c>
       <c r="M49" s="3">
         <v>400</v>
@@ -3917,34 +4139,34 @@
         <v>400</v>
       </c>
       <c r="R49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S49" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="T49" s="3">
         <v>500</v>
       </c>
       <c r="U49" s="3">
+        <v>500</v>
+      </c>
+      <c r="V49" s="3">
+        <v>500</v>
+      </c>
+      <c r="W49" s="3">
         <v>600</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>900</v>
-      </c>
-      <c r="W49" s="3">
-        <v>300</v>
-      </c>
-      <c r="X49" s="3">
-        <v>300</v>
       </c>
       <c r="Y49" s="3">
         <v>300</v>
       </c>
       <c r="Z49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA49" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AB49" s="3">
         <v>600</v>
@@ -3955,8 +4177,14 @@
       <c r="AD49" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4269,14 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,40 +4361,46 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>200</v>
+      </c>
+      <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>300</v>
       </c>
       <c r="H52" s="3">
         <v>300</v>
       </c>
       <c r="I52" s="3">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="J52" s="3">
         <v>300</v>
       </c>
       <c r="K52" s="3">
+        <v>800</v>
+      </c>
+      <c r="L52" s="3">
+        <v>300</v>
+      </c>
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -4183,11 +4423,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -4195,11 +4435,11 @@
       <c r="X52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z52" s="3">
-        <v>0</v>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA52" s="3">
         <v>0</v>
@@ -4213,8 +4453,14 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,40 +4545,46 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F54" s="3">
         <v>12000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>22000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>34400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>34100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>39900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>35400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>30700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
-      </c>
-      <c r="L54" s="3">
-        <v>500</v>
-      </c>
-      <c r="M54" s="3">
-        <v>500</v>
       </c>
       <c r="N54" s="3">
         <v>500</v>
@@ -4341,10 +4593,10 @@
         <v>500</v>
       </c>
       <c r="P54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q54" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="R54" s="3">
         <v>600</v>
@@ -4359,22 +4611,22 @@
         <v>600</v>
       </c>
       <c r="V54" s="3">
+        <v>600</v>
+      </c>
+      <c r="W54" s="3">
+        <v>600</v>
+      </c>
+      <c r="X54" s="3">
         <v>1100</v>
-      </c>
-      <c r="W54" s="3">
-        <v>300</v>
-      </c>
-      <c r="X54" s="3">
-        <v>300</v>
       </c>
       <c r="Y54" s="3">
         <v>300</v>
       </c>
       <c r="Z54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AA54" s="3">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="AB54" s="3">
         <v>600</v>
@@ -4385,8 +4637,14 @@
       <c r="AD54" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4675,10 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,40 +4709,42 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>14500</v>
+      </c>
+      <c r="F57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>3300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>7800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>8900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>500</v>
       </c>
       <c r="N57" s="3">
         <v>500</v>
@@ -4491,31 +4753,31 @@
         <v>500</v>
       </c>
       <c r="P57" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>500</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>200</v>
-      </c>
-      <c r="T57" s="3">
-        <v>100</v>
-      </c>
-      <c r="U57" s="3">
-        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
         <v>200</v>
@@ -4527,16 +4789,22 @@
         <v>200</v>
       </c>
       <c r="AB57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>400</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,58 +4815,58 @@
         <v>3300</v>
       </c>
       <c r="F58" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="G58" s="3">
-        <v>2400</v>
+        <v>3300</v>
       </c>
       <c r="H58" s="3">
         <v>2400</v>
       </c>
       <c r="I58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P58" s="3">
-        <v>1100</v>
       </c>
       <c r="Q58" s="3">
         <v>1100</v>
       </c>
       <c r="R58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>1000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>600</v>
-      </c>
-      <c r="V58" s="3">
-        <v>100</v>
-      </c>
-      <c r="W58" s="3">
-        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>100</v>
@@ -4607,7 +4875,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
@@ -4621,180 +4889,198 @@
       <c r="AD58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F59" s="3">
         <v>8000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>6500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>11600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>11700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>12600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>12200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>1800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2000</v>
       </c>
       <c r="O59" s="3">
         <v>1800</v>
       </c>
       <c r="P59" s="3">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="Q59" s="3">
         <v>1800</v>
       </c>
       <c r="R59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T59" s="3">
         <v>800</v>
-      </c>
-      <c r="S59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="T59" s="3">
-        <v>1500</v>
       </c>
       <c r="U59" s="3">
         <v>1000</v>
       </c>
       <c r="V59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X59" s="3">
         <v>1200</v>
       </c>
-      <c r="W59" s="3">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
         <v>500</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>500</v>
-      </c>
-      <c r="Z59" s="3">
-        <v>600</v>
-      </c>
-      <c r="AA59" s="3">
-        <v>600</v>
       </c>
       <c r="AB59" s="3">
         <v>600</v>
       </c>
       <c r="AC59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE59" s="3">
         <v>500</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F60" s="3">
         <v>19500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>18500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>17500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>21400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>19700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>23400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>3200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>800</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z60" s="3">
-        <v>900</v>
       </c>
       <c r="AA60" s="3">
         <v>800</v>
       </c>
       <c r="AB60" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE60" s="3">
         <v>900</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4805,22 +5091,22 @@
         <v>1300</v>
       </c>
       <c r="F61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H61" s="3">
         <v>1100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1200</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I61" s="3">
-        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1200</v>
       </c>
       <c r="K61" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="L61" s="3">
         <v>1200</v>
@@ -4829,22 +5115,22 @@
         <v>1200</v>
       </c>
       <c r="N61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="O61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P61" s="3">
         <v>1100</v>
       </c>
       <c r="Q61" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="R61" s="3">
         <v>1100</v>
       </c>
       <c r="S61" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T61" s="3">
         <v>1100</v>
@@ -4853,14 +5139,14 @@
         <v>1100</v>
       </c>
       <c r="V61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W61" s="3">
+        <v>1100</v>
+      </c>
+      <c r="X61" s="3">
         <v>1200</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
@@ -4879,55 +5165,61 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>2700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>2500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>3600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>2600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>1600</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -4965,8 +5257,14 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5349,14 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5441,14 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5533,106 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>23400</v>
+      </c>
+      <c r="F66" s="3">
         <v>24900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>24500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>22400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>22800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>28600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>26200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>26100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>4500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3300</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>2800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>2500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>800</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z66" s="3">
-        <v>900</v>
       </c>
       <c r="AA66" s="3">
         <v>800</v>
       </c>
       <c r="AB66" s="3">
+        <v>900</v>
+      </c>
+      <c r="AC66" s="3">
         <v>800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE66" s="3">
         <v>900</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5663,10 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5751,14 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5843,14 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5935,14 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +6027,106 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-65600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-64700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-60600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-46600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-29700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-20800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-16700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-11300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-6700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-5000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-4300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-3500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-19500</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-19500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-19400</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-19200</v>
-      </c>
-      <c r="AA72" s="3">
-        <v>-19200</v>
       </c>
       <c r="AB72" s="3">
         <v>-19200</v>
       </c>
       <c r="AC72" s="3">
-        <v>-19300</v>
+        <v>-19200</v>
       </c>
       <c r="AD72" s="3">
         <v>-19200</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>-19200</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6211,14 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6303,14 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6395,106 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="F76" s="3">
         <v>-12900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>11900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>11300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>11300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>9200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-3600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3700</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-3900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-4000</v>
       </c>
       <c r="O76" s="3">
         <v>-3900</v>
       </c>
       <c r="P76" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="R76" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-3800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-2600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-2800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-3000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-2200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-1400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>100</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-400</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AA76" s="3">
-        <v>-200</v>
       </c>
       <c r="AB76" s="3">
         <v>-200</v>
       </c>
       <c r="AC76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE76" s="3">
         <v>-300</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6579,203 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-14000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-17200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-8900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-9200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-1700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>100</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-900</v>
       </c>
       <c r="V81" s="3">
         <v>-800</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>0</v>
-      </c>
       <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD81" s="3">
         <v>100</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-100</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,38 +6806,40 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>100</v>
+      </c>
+      <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
+        <v>200</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -6496,8 +6894,14 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6986,14 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +7078,14 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +7170,14 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7262,14 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,44 +7354,50 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-2300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-3900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-6700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
@@ -6977,23 +7411,23 @@
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-600</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
         <v>0</v>
       </c>
@@ -7012,8 +7446,14 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,52 +7484,54 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-300</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -7130,8 +7572,14 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7664,14 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,41 +7756,47 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-4500</v>
-      </c>
-      <c r="F94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-500</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
       </c>
       <c r="I94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -7359,17 +7819,17 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7848,14 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7886,10 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7974,14 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +8066,14 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +8158,14 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,44 +8250,50 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>500</v>
+      </c>
+      <c r="F100" s="3">
         <v>2100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>11400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>12400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>7700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>6600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>9800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -7815,23 +8307,23 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
@@ -7850,35 +8342,41 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F101" s="3">
         <v>-400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>2500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-900</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-400</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
@@ -7891,8 +8389,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>4</v>
@@ -7903,8 +8401,8 @@
       <c r="S101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>4</v>
@@ -7918,11 +8416,11 @@
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7936,44 +8434,50 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-3900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-1100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>1100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>1100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>2400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7990,20 +8494,20 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
-      <c r="X102" s="3">
-        <v>0</v>
-      </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8524,12 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
